--- a/data/test/NSGA-II_Test1_picture.xlsx
+++ b/data/test/NSGA-II_Test1_picture.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14355"/>
+    <workbookView windowWidth="28695" windowHeight="13335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -16,12 +17,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -30,11 +31,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -47,7 +53,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -61,7 +67,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -76,6 +82,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -84,16 +114,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,31 +136,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,28 +180,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -189,187 +196,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,8 +393,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -407,24 +432,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -435,6 +442,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -465,173 +487,164 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -952,10 +965,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:DD53"/>
+  <dimension ref="A1:BR54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.51851851851852" defaultRowHeight="17.25" customHeight="1"/>
@@ -963,7 +976,7 @@
     <col min="1" max="16384" width="2.51851851851852" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:108">
+    <row r="1" customHeight="1" spans="1:70">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1174,233 +1187,1115 @@
       <c r="BR1">
         <v>70</v>
       </c>
-      <c r="BS1">
+    </row>
+    <row r="2" customHeight="1" spans="1:70">
+      <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>18</v>
+      </c>
+      <c r="I2">
+        <v>19</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>21</v>
+      </c>
+      <c r="L2">
+        <v>22</v>
+      </c>
+      <c r="M2">
+        <v>23</v>
+      </c>
+      <c r="N2">
+        <v>24</v>
+      </c>
+      <c r="O2">
+        <v>25</v>
+      </c>
+      <c r="P2">
+        <v>26</v>
+      </c>
+      <c r="Q2">
+        <v>27</v>
+      </c>
+      <c r="R2">
+        <v>28</v>
+      </c>
+      <c r="S2">
+        <v>29</v>
+      </c>
+      <c r="T2">
+        <v>30</v>
+      </c>
+      <c r="U2">
+        <v>31</v>
+      </c>
+      <c r="V2">
+        <v>32</v>
+      </c>
+      <c r="W2">
+        <v>33</v>
+      </c>
+      <c r="X2">
+        <v>34</v>
+      </c>
+      <c r="Y2">
+        <v>35</v>
+      </c>
+      <c r="Z2">
+        <v>36</v>
+      </c>
+      <c r="AA2">
+        <v>37</v>
+      </c>
+      <c r="AB2">
+        <v>38</v>
+      </c>
+      <c r="AC2">
+        <v>39</v>
+      </c>
+      <c r="AD2">
+        <v>40</v>
+      </c>
+      <c r="AE2">
+        <v>41</v>
+      </c>
+      <c r="AF2">
+        <v>42</v>
+      </c>
+      <c r="AG2">
+        <v>43</v>
+      </c>
+      <c r="AH2">
+        <v>44</v>
+      </c>
+      <c r="AI2">
+        <v>45</v>
+      </c>
+      <c r="AJ2">
+        <v>46</v>
+      </c>
+      <c r="AK2">
+        <v>47</v>
+      </c>
+      <c r="AL2">
+        <v>48</v>
+      </c>
+      <c r="AM2">
+        <v>49</v>
+      </c>
+      <c r="AN2">
+        <v>50</v>
+      </c>
+      <c r="AO2">
+        <v>51</v>
+      </c>
+      <c r="AP2">
+        <v>52</v>
+      </c>
+      <c r="AQ2">
+        <v>53</v>
+      </c>
+      <c r="AR2">
+        <v>54</v>
+      </c>
+      <c r="AS2">
+        <v>55</v>
+      </c>
+      <c r="AT2">
+        <v>56</v>
+      </c>
+      <c r="AU2">
+        <v>57</v>
+      </c>
+      <c r="AV2">
+        <v>58</v>
+      </c>
+      <c r="AW2">
+        <v>59</v>
+      </c>
+      <c r="AX2">
+        <v>60</v>
+      </c>
+      <c r="AY2">
+        <v>61</v>
+      </c>
+      <c r="AZ2">
+        <v>62</v>
+      </c>
+      <c r="BA2">
+        <v>63</v>
+      </c>
+      <c r="BB2">
+        <v>64</v>
+      </c>
+      <c r="BC2">
+        <v>65</v>
+      </c>
+      <c r="BD2">
+        <v>66</v>
+      </c>
+      <c r="BE2">
+        <v>67</v>
+      </c>
+      <c r="BF2">
+        <v>68</v>
+      </c>
+      <c r="BG2">
+        <v>69</v>
+      </c>
+      <c r="BH2">
+        <v>70</v>
+      </c>
+      <c r="BI2">
         <v>71</v>
       </c>
-      <c r="BT1">
+      <c r="BJ2">
         <v>72</v>
       </c>
-      <c r="BU1">
+      <c r="BK2">
         <v>73</v>
       </c>
-      <c r="BV1">
+      <c r="BL2">
         <v>74</v>
       </c>
-      <c r="BW1">
+      <c r="BM2">
         <v>75</v>
       </c>
-      <c r="BX1">
+      <c r="BN2">
         <v>76</v>
       </c>
-      <c r="BY1">
+      <c r="BO2">
         <v>77</v>
       </c>
-      <c r="BZ1">
+      <c r="BP2">
         <v>78</v>
       </c>
-      <c r="CA1">
+      <c r="BQ2">
         <v>79</v>
       </c>
-      <c r="CB1">
+      <c r="BR2">
         <v>80</v>
       </c>
-      <c r="CC1">
+    </row>
+    <row r="3" customHeight="1" spans="1:34">
+      <c r="A3">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>22</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:32">
+      <c r="A5">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>42</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:2">
+      <c r="A7">
+        <v>61</v>
+      </c>
+      <c r="B7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:39">
+      <c r="A8">
+        <v>71</v>
+      </c>
+      <c r="B8">
+        <v>72</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>4</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:2">
+      <c r="A9">
         <v>81</v>
       </c>
-      <c r="CD1">
+      <c r="B9">
         <v>82</v>
       </c>
-      <c r="CE1">
-        <v>83</v>
-      </c>
-      <c r="CF1">
-        <v>84</v>
-      </c>
-      <c r="CG1">
-        <v>85</v>
-      </c>
-      <c r="CH1">
-        <v>86</v>
-      </c>
-      <c r="CI1">
-        <v>87</v>
-      </c>
-      <c r="CJ1">
-        <v>88</v>
-      </c>
-      <c r="CK1">
-        <v>89</v>
-      </c>
-      <c r="CL1">
-        <v>90</v>
-      </c>
-      <c r="CM1">
+    </row>
+    <row r="10" customHeight="1" spans="1:2">
+      <c r="A10">
         <v>91</v>
       </c>
-      <c r="CN1">
+      <c r="B10">
         <v>92</v>
       </c>
-      <c r="CO1">
-        <v>93</v>
-      </c>
-      <c r="CP1">
-        <v>94</v>
-      </c>
-      <c r="CQ1">
-        <v>95</v>
-      </c>
-      <c r="CR1">
-        <v>96</v>
-      </c>
-      <c r="CS1">
-        <v>97</v>
-      </c>
-      <c r="CT1">
-        <v>98</v>
-      </c>
-      <c r="CU1">
-        <v>99</v>
-      </c>
-      <c r="CV1">
-        <v>100</v>
-      </c>
-      <c r="CW1">
+    </row>
+    <row r="11" customHeight="1" spans="1:32">
+      <c r="A11">
         <v>101</v>
       </c>
-      <c r="CX1">
+      <c r="B11">
         <v>102</v>
       </c>
-      <c r="CY1">
-        <v>103</v>
-      </c>
-      <c r="CZ1">
-        <v>104</v>
-      </c>
-      <c r="DA1">
-        <v>105</v>
-      </c>
-      <c r="DB1">
-        <v>106</v>
-      </c>
-      <c r="DC1">
-        <v>107</v>
-      </c>
-      <c r="DD1">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="26:34">
-      <c r="Z3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="32:32">
-      <c r="AF5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="31:39">
-      <c r="AE8" s="1">
-        <v>4</v>
-      </c>
-      <c r="AM8" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="32:32">
-      <c r="AF11" s="1">
+      <c r="AF11" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="30:30">
-      <c r="AD13" s="1">
+    <row r="12" customHeight="1" spans="1:2">
+      <c r="A12">
+        <v>111</v>
+      </c>
+      <c r="B12">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:30">
+      <c r="A13">
+        <v>121</v>
+      </c>
+      <c r="B13">
+        <v>122</v>
+      </c>
+      <c r="AD13" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="52:52">
-      <c r="AZ32" s="1">
+    <row r="14" customHeight="1" spans="1:2">
+      <c r="A14">
+        <v>131</v>
+      </c>
+      <c r="B14">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:2">
+      <c r="A15">
+        <v>141</v>
+      </c>
+      <c r="B15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:2">
+      <c r="A16">
+        <v>151</v>
+      </c>
+      <c r="B16">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:2">
+      <c r="A17">
+        <v>161</v>
+      </c>
+      <c r="B17">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:2">
+      <c r="A18">
+        <v>171</v>
+      </c>
+      <c r="B18">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:2">
+      <c r="A19">
+        <v>181</v>
+      </c>
+      <c r="B19">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:2">
+      <c r="A20">
+        <v>191</v>
+      </c>
+      <c r="B20">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:2">
+      <c r="A21">
+        <v>201</v>
+      </c>
+      <c r="B21">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:2">
+      <c r="A22">
+        <v>211</v>
+      </c>
+      <c r="B22">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:2">
+      <c r="A23">
+        <v>221</v>
+      </c>
+      <c r="B23">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:2">
+      <c r="A24">
+        <v>231</v>
+      </c>
+      <c r="B24">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:2">
+      <c r="A25">
+        <v>241</v>
+      </c>
+      <c r="B25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:2">
+      <c r="A26">
+        <v>251</v>
+      </c>
+      <c r="B26">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:2">
+      <c r="A27">
+        <v>261</v>
+      </c>
+      <c r="B27">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:2">
+      <c r="A28">
+        <v>271</v>
+      </c>
+      <c r="B28">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:2">
+      <c r="A29">
+        <v>281</v>
+      </c>
+      <c r="B29">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:2">
+      <c r="A30">
+        <v>291</v>
+      </c>
+      <c r="B30">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:2">
+      <c r="A31">
+        <v>301</v>
+      </c>
+      <c r="B31">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:52">
+      <c r="A32">
+        <v>311</v>
+      </c>
+      <c r="B32">
+        <v>312</v>
+      </c>
+      <c r="AZ32" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="60:60">
-      <c r="BH33" s="1">
+    <row r="33" customHeight="1" spans="1:60">
+      <c r="A33">
+        <v>321</v>
+      </c>
+      <c r="B33">
+        <v>322</v>
+      </c>
+      <c r="BH33" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="54:54">
-      <c r="BB36" s="1">
+    <row r="34" customHeight="1" spans="1:2">
+      <c r="A34">
+        <v>331</v>
+      </c>
+      <c r="B34">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:2">
+      <c r="A35">
+        <v>341</v>
+      </c>
+      <c r="B35">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:54">
+      <c r="A36">
+        <v>351</v>
+      </c>
+      <c r="B36">
+        <v>352</v>
+      </c>
+      <c r="BB36" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="56:56">
-      <c r="BD38" s="1">
+    <row r="37" customHeight="1" spans="1:2">
+      <c r="A37">
+        <v>361</v>
+      </c>
+      <c r="B37">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:56">
+      <c r="A38">
+        <v>371</v>
+      </c>
+      <c r="B38">
+        <v>372</v>
+      </c>
+      <c r="BD38" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="15:15">
-      <c r="O39" s="1">
+    <row r="39" customHeight="1" spans="1:15">
+      <c r="A39">
+        <v>381</v>
+      </c>
+      <c r="B39">
+        <v>382</v>
+      </c>
+      <c r="O39" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="60:60">
-      <c r="BH40" s="1">
+    <row r="40" customHeight="1" spans="1:60">
+      <c r="A40">
+        <v>391</v>
+      </c>
+      <c r="B40">
+        <v>392</v>
+      </c>
+      <c r="BH40" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="53:53">
-      <c r="BA41" s="1">
+    <row r="41" customHeight="1" spans="1:53">
+      <c r="A41">
+        <v>401</v>
+      </c>
+      <c r="B41">
+        <v>402</v>
+      </c>
+      <c r="BA41" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="59:59">
-      <c r="BG42" s="1">
+    <row r="42" customHeight="1" spans="1:59">
+      <c r="A42">
+        <v>411</v>
+      </c>
+      <c r="B42">
+        <v>412</v>
+      </c>
+      <c r="BG42" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="10:49">
-      <c r="J43" s="1">
+    <row r="43" customHeight="1" spans="1:49">
+      <c r="A43">
+        <v>421</v>
+      </c>
+      <c r="B43">
+        <v>422</v>
+      </c>
+      <c r="J43" s="3">
         <v>9</v>
       </c>
-      <c r="AW43" s="1">
+      <c r="AW43" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="56:56">
-      <c r="BD45" s="1">
+    <row r="44" customHeight="1" spans="1:2">
+      <c r="A44">
+        <v>431</v>
+      </c>
+      <c r="B44">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:56">
+      <c r="A45">
+        <v>441</v>
+      </c>
+      <c r="B45">
+        <v>442</v>
+      </c>
+      <c r="BD45" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="9:14">
-      <c r="I46" s="1">
+    <row r="46" customHeight="1" spans="1:14">
+      <c r="A46">
+        <v>451</v>
+      </c>
+      <c r="B46">
+        <v>452</v>
+      </c>
+      <c r="I46" s="3">
         <v>10</v>
       </c>
-      <c r="N46" s="1">
+      <c r="N46" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="11:16">
-      <c r="K49" s="1">
+    <row r="47" customHeight="1" spans="1:2">
+      <c r="A47">
+        <v>461</v>
+      </c>
+      <c r="B47">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:2">
+      <c r="A48">
+        <v>471</v>
+      </c>
+      <c r="B48">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:16">
+      <c r="A49">
+        <v>481</v>
+      </c>
+      <c r="B49">
+        <v>482</v>
+      </c>
+      <c r="K49" s="3">
         <v>12</v>
       </c>
-      <c r="P49" s="1">
+      <c r="P49" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="13:13">
-      <c r="M52" s="1">
+    <row r="50" customHeight="1" spans="1:2">
+      <c r="A50">
+        <v>491</v>
+      </c>
+      <c r="B50">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:2">
+      <c r="A51">
+        <v>501</v>
+      </c>
+      <c r="B51">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:13">
+      <c r="A52">
+        <v>511</v>
+      </c>
+      <c r="B52">
+        <v>512</v>
+      </c>
+      <c r="M52" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="8:18">
-      <c r="H53" s="1">
+    <row r="53" customHeight="1" spans="1:18">
+      <c r="A53">
+        <v>521</v>
+      </c>
+      <c r="B53">
+        <v>522</v>
+      </c>
+      <c r="H53" s="3">
         <v>15</v>
       </c>
-      <c r="R53" s="1">
+      <c r="R53" s="3">
         <v>16</v>
       </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:2">
+      <c r="A54">
+        <v>531</v>
+      </c>
+      <c r="B54">
+        <v>532</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="AD4:DL66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="BK41" sqref="BK41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.51851851851852" defaultRowHeight="17.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="2.51851851851852" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" customHeight="1" spans="62:74">
+      <c r="BJ4" s="2"/>
+      <c r="BQ4" s="2"/>
+      <c r="BV4" s="2"/>
+    </row>
+    <row r="5" customHeight="1" spans="51:97">
+      <c r="AY5" s="2"/>
+      <c r="BD5" s="2"/>
+      <c r="CA5" s="2"/>
+      <c r="CH5" s="2"/>
+      <c r="CS5" s="2"/>
+    </row>
+    <row r="6" customHeight="1" spans="60:71">
+      <c r="BH6" s="2"/>
+      <c r="BN6" s="2"/>
+      <c r="BS6" s="2"/>
+    </row>
+    <row r="7" customHeight="1" spans="47:104">
+      <c r="AU7" s="2"/>
+      <c r="AZ7" s="2"/>
+      <c r="BW7" s="2"/>
+      <c r="CD7" s="2"/>
+      <c r="CK7" s="2"/>
+      <c r="CQ7" s="2"/>
+      <c r="CV7" s="2"/>
+      <c r="CZ7" s="2"/>
+    </row>
+    <row r="8" customHeight="1" spans="43:92">
+      <c r="AQ8" s="2"/>
+      <c r="AZ8" s="2"/>
+      <c r="BK8" s="2"/>
+      <c r="BZ8" s="2"/>
+      <c r="CI8" s="2"/>
+      <c r="CN8" s="2"/>
+    </row>
+    <row r="9" customHeight="1" spans="49:102">
+      <c r="AW9" s="2"/>
+      <c r="BB9" s="2"/>
+      <c r="BT9" s="2"/>
+      <c r="CG9" s="2"/>
+      <c r="CT9" s="2"/>
+      <c r="CX9" s="2"/>
+    </row>
+    <row r="10" customHeight="1" spans="58:107">
+      <c r="BF10" s="2"/>
+      <c r="BO10" s="2"/>
+      <c r="BW10" s="2"/>
+      <c r="CD10" s="2"/>
+      <c r="CO10" s="2"/>
+      <c r="CZ10" s="2"/>
+      <c r="DC10" s="2"/>
+    </row>
+    <row r="11" customHeight="1" spans="42:109">
+      <c r="AP11" s="2"/>
+      <c r="AS11" s="2"/>
+      <c r="CJ11" s="2"/>
+      <c r="CM11" s="2"/>
+      <c r="CQ11" s="2"/>
+      <c r="DE11" s="2"/>
+    </row>
+    <row r="12" customHeight="1" spans="39:106">
+      <c r="AM12" s="2"/>
+      <c r="AV12" s="2"/>
+      <c r="CT12" s="2"/>
+      <c r="CX12" s="2"/>
+      <c r="DB12" s="2"/>
+    </row>
+    <row r="14" customHeight="1" spans="42:111">
+      <c r="AP14" s="2"/>
+      <c r="AY14" s="2"/>
+      <c r="CZ14" s="2"/>
+      <c r="DC14" s="2"/>
+      <c r="DG14" s="2"/>
+    </row>
+    <row r="15" customHeight="1" spans="35:109">
+      <c r="AI15" s="2"/>
+      <c r="AS15" s="2"/>
+      <c r="DE15" s="2"/>
+    </row>
+    <row r="16" customHeight="1" spans="38:38">
+      <c r="AL16" s="2"/>
+    </row>
+    <row r="17" customHeight="1" spans="104:104">
+      <c r="CZ17" s="2"/>
+    </row>
+    <row r="18" customHeight="1" spans="32:111">
+      <c r="AF18" s="2"/>
+      <c r="DD18" s="2"/>
+      <c r="DG18" s="2"/>
+    </row>
+    <row r="19" customHeight="1" spans="37:114">
+      <c r="AK19" s="2"/>
+      <c r="DJ19" s="2"/>
+    </row>
+    <row r="20" customHeight="1" spans="34:40">
+      <c r="AH20" s="2"/>
+      <c r="AN20" s="2"/>
+    </row>
+    <row r="21" customHeight="1" spans="105:112">
+      <c r="DA21" s="2"/>
+      <c r="DD21" s="2"/>
+      <c r="DH21" s="2"/>
+    </row>
+    <row r="22" customHeight="1" spans="32:73">
+      <c r="AF22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="BU22" s="2"/>
+    </row>
+    <row r="23" customHeight="1" spans="40:114">
+      <c r="AN23" s="2"/>
+      <c r="DJ23" s="2"/>
+    </row>
+    <row r="24" customHeight="1" spans="65:110">
+      <c r="BM24" s="2"/>
+      <c r="BZ24" s="2"/>
+      <c r="DB24" s="2"/>
+      <c r="DF24" s="2"/>
+    </row>
+    <row r="25" customHeight="1" spans="33:73">
+      <c r="AG25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="BQ25" s="2"/>
+      <c r="BU25" s="2"/>
+    </row>
+    <row r="26" customHeight="1" spans="76:112">
+      <c r="BX26" s="2"/>
+      <c r="DH26" s="2"/>
+    </row>
+    <row r="27" customHeight="1" spans="30:107">
+      <c r="AD27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="BE27" s="2"/>
+      <c r="BL27" s="2"/>
+      <c r="BS27" s="2"/>
+      <c r="BZ27" s="2"/>
+      <c r="CC27" s="2"/>
+      <c r="DC27" s="2"/>
+    </row>
+    <row r="28" customHeight="1" spans="32:114">
+      <c r="AF28" s="2"/>
+      <c r="BC28" s="2"/>
+      <c r="BH28" s="2"/>
+      <c r="BP28" s="2"/>
+      <c r="DE28" s="2"/>
+      <c r="DJ28" s="2"/>
+    </row>
+    <row r="29" customHeight="1" spans="66:80">
+      <c r="BN29" s="2"/>
+      <c r="BW29" s="2"/>
+      <c r="CB29" s="2"/>
+    </row>
+    <row r="30" customHeight="1" spans="32:112">
+      <c r="AF30" s="2"/>
+      <c r="BG30" s="2"/>
+      <c r="BJ30" s="2"/>
+      <c r="BP30" s="2"/>
+      <c r="BR30" s="2"/>
+      <c r="BU30" s="2"/>
+      <c r="CF30" s="2"/>
+      <c r="DH30" s="2"/>
+    </row>
+    <row r="31" customHeight="1" spans="36:116">
+      <c r="AJ31" s="2"/>
+      <c r="BC31" s="2"/>
+      <c r="BL31" s="2"/>
+      <c r="BZ31" s="2"/>
+      <c r="CB31" s="2"/>
+      <c r="DL31" s="2"/>
+    </row>
+    <row r="32" customHeight="1" spans="59:111">
+      <c r="BG32" s="2"/>
+      <c r="BV32" s="2"/>
+      <c r="DD32" s="2"/>
+      <c r="DG32" s="2"/>
+    </row>
+    <row r="33" customHeight="1" spans="31:84">
+      <c r="AE33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="BJ33" s="2"/>
+      <c r="BP33" s="2"/>
+      <c r="BR33" s="2"/>
+      <c r="CF33" s="2"/>
+    </row>
+    <row r="34" customHeight="1" spans="66:113">
+      <c r="BN34" s="2"/>
+      <c r="BU34" s="2"/>
+      <c r="BY34" s="2"/>
+      <c r="CC34" s="2"/>
+      <c r="DF34" s="2"/>
+      <c r="DI34" s="2"/>
+    </row>
+    <row r="35" customHeight="1" spans="54:85">
+      <c r="BB35" s="2"/>
+      <c r="BH35" s="2"/>
+      <c r="BQ35" s="2"/>
+      <c r="CG35" s="2"/>
+    </row>
+    <row r="36" customHeight="1" spans="35:115">
+      <c r="AI36" s="2"/>
+      <c r="BE36" s="2"/>
+      <c r="BL36" s="2"/>
+      <c r="BW36" s="2"/>
+      <c r="DE36" s="2"/>
+      <c r="DK36" s="2"/>
+    </row>
+    <row r="37" customHeight="1" spans="31:83">
+      <c r="AE37" s="2"/>
+      <c r="BI37" s="2"/>
+      <c r="BO37" s="2"/>
+      <c r="BS37" s="2"/>
+      <c r="CA37" s="2"/>
+      <c r="CE37" s="2"/>
+    </row>
+    <row r="38" customHeight="1" spans="36:112">
+      <c r="AJ38" s="2"/>
+      <c r="BK38" s="2"/>
+      <c r="DH38" s="2"/>
+    </row>
+    <row r="39" customHeight="1" spans="58:75">
+      <c r="BF39" s="2"/>
+      <c r="BW39" s="2"/>
+    </row>
+    <row r="40" customHeight="1" spans="31:109">
+      <c r="AE40" s="2"/>
+      <c r="AH40" s="2"/>
+      <c r="BI40" s="2"/>
+      <c r="BO40" s="2"/>
+      <c r="BU40" s="2"/>
+      <c r="BZ40" s="2"/>
+      <c r="CB40" s="2"/>
+      <c r="CF40" s="2"/>
+      <c r="DC40" s="2"/>
+      <c r="DE40" s="2"/>
+    </row>
+    <row r="41" customHeight="1" spans="64:113">
+      <c r="BL41" s="2"/>
+      <c r="BR41" s="2"/>
+      <c r="DI41" s="2"/>
+    </row>
+    <row r="42" customHeight="1" spans="36:76">
+      <c r="AJ42" s="2"/>
+      <c r="BE42" s="2"/>
+      <c r="BJ42" s="2"/>
+      <c r="BS42" s="2"/>
+      <c r="BX42" s="2"/>
+    </row>
+    <row r="43" customHeight="1" spans="34:111">
+      <c r="AH43" s="2"/>
+      <c r="BN43" s="2"/>
+      <c r="CC43" s="2"/>
+      <c r="DC43" s="2"/>
+      <c r="DG43" s="2"/>
+    </row>
+    <row r="44" customHeight="1" spans="31:74">
+      <c r="AE44" s="2"/>
+      <c r="BH44" s="2"/>
+      <c r="BM44" s="2"/>
+      <c r="BP44" s="2"/>
+      <c r="BV44" s="2"/>
+    </row>
+    <row r="45" customHeight="1" spans="33:109">
+      <c r="AG45" s="2"/>
+      <c r="CZ45" s="2"/>
+      <c r="DE45" s="2"/>
+    </row>
+    <row r="46" customHeight="1" spans="62:112">
+      <c r="BJ46" s="2"/>
+      <c r="BP46" s="2"/>
+      <c r="BT46" s="2"/>
+      <c r="BY46" s="2"/>
+      <c r="DH46" s="2"/>
+    </row>
+    <row r="47" customHeight="1" spans="108:108">
+      <c r="DD47" s="2"/>
+    </row>
+    <row r="48" customHeight="1" spans="31:36">
+      <c r="AE48" s="2"/>
+      <c r="AG48" s="2"/>
+      <c r="AJ48" s="2"/>
+    </row>
+    <row r="49" customHeight="1" spans="109:109">
+      <c r="DE49" s="2"/>
+    </row>
+    <row r="50" customHeight="1" spans="106:106">
+      <c r="DB50" s="2"/>
+    </row>
+    <row r="51" customHeight="1" spans="33:103">
+      <c r="AG51" s="2"/>
+      <c r="AK51" s="2"/>
+      <c r="CY51" s="2"/>
+    </row>
+    <row r="52" customHeight="1" spans="36:107">
+      <c r="AJ52" s="2"/>
+      <c r="DC52" s="2"/>
+    </row>
+    <row r="53" customHeight="1" spans="104:104">
+      <c r="CZ53" s="2"/>
+    </row>
+    <row r="54" customHeight="1" spans="33:101">
+      <c r="AG54" s="2"/>
+      <c r="CW54" s="2"/>
+    </row>
+    <row r="55" customHeight="1" spans="36:41">
+      <c r="AJ55" s="2"/>
+      <c r="AM55" s="2"/>
+      <c r="AO55" s="2"/>
+    </row>
+    <row r="56" customHeight="1" spans="98:105">
+      <c r="CT56" s="2"/>
+      <c r="CY56" s="2"/>
+      <c r="DA56" s="2"/>
+    </row>
+    <row r="58" customHeight="1" spans="34:100">
+      <c r="AH58" s="2"/>
+      <c r="AL58" s="2"/>
+      <c r="AO58" s="2"/>
+      <c r="AR58" s="2"/>
+      <c r="CQ58" s="2"/>
+      <c r="CV58" s="2"/>
+    </row>
+    <row r="59" customHeight="1" spans="57:102">
+      <c r="BE59" s="2"/>
+      <c r="CN59" s="2"/>
+      <c r="CT59" s="2"/>
+      <c r="CX59" s="2"/>
+    </row>
+    <row r="60" customHeight="1" spans="49:95">
+      <c r="AW60" s="2"/>
+      <c r="BI60" s="2"/>
+      <c r="BM60" s="2"/>
+      <c r="BW60" s="2"/>
+      <c r="CA60" s="2"/>
+      <c r="CD60" s="2"/>
+      <c r="CI60" s="2"/>
+      <c r="CQ60" s="2"/>
+    </row>
+    <row r="61" customHeight="1" spans="37:97">
+      <c r="AK61" s="2"/>
+      <c r="AO61" s="2"/>
+      <c r="AR61" s="2"/>
+      <c r="AU61" s="2"/>
+      <c r="AZ61" s="2"/>
+      <c r="BB61" s="2"/>
+      <c r="BS61" s="2"/>
+      <c r="CO61" s="2"/>
+      <c r="CS61" s="2"/>
+    </row>
+    <row r="62" customHeight="1" spans="58:90">
+      <c r="BF62" s="2"/>
+      <c r="BI62" s="2"/>
+      <c r="BO62" s="2"/>
+      <c r="BU62" s="2"/>
+      <c r="CA62" s="2"/>
+      <c r="CH62" s="2"/>
+      <c r="CL62" s="2"/>
+    </row>
+    <row r="63" customHeight="1" spans="45:93">
+      <c r="AS63" s="2"/>
+      <c r="AW63" s="2"/>
+      <c r="BC63" s="2"/>
+      <c r="BL63" s="2"/>
+      <c r="BX63" s="2"/>
+      <c r="CO63" s="2"/>
+    </row>
+    <row r="64" customHeight="1" spans="42:88">
+      <c r="AP64" s="2"/>
+      <c r="BQ64" s="2"/>
+      <c r="BT64" s="2"/>
+      <c r="CE64" s="2"/>
+      <c r="CJ64" s="2"/>
+    </row>
+    <row r="65" customHeight="1" spans="47:91">
+      <c r="AU65" s="2"/>
+      <c r="AX65" s="2"/>
+      <c r="BB65" s="2"/>
+      <c r="BH65" s="2"/>
+      <c r="BK65" s="2"/>
+      <c r="BN65" s="2"/>
+      <c r="BV65" s="2"/>
+      <c r="CA65" s="2"/>
+      <c r="CH65" s="2"/>
+      <c r="CM65" s="2"/>
+    </row>
+    <row r="66" customHeight="1" spans="71:71">
+      <c r="BS66" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
